--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASD\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\workhome\GitHub\yangzhengyu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF1343E-A9AA-4389-8846-3F44A9140BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02F1CA0-3EEF-41B0-AB6C-784B616076F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5796" yWindow="972" windowWidth="17244" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2256" yWindow="1692" windowWidth="17244" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,33 +25,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浪晋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是四川</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>langjin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>man</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chengdu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhouyi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaobai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhangsan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lisi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beijing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shanghai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hubei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tianjin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -95,8 +131,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -377,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -388,7 +425,7 @@
     <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -401,19 +438,93 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>123456789</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>44652</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>234567896</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1">
+        <v>44653</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>345456791</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1">
+        <v>44654</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>423456792</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1">
+        <v>44655</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>523456793</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1">
+        <v>44656</v>
       </c>
     </row>
   </sheetData>
